--- a/RO/TP3/Interface_TP3_Exo1.xlsx
+++ b/RO/TP3/Interface_TP3_Exo1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Données" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,24 +26,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999816888943144"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -150,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -162,15 +150,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -562,13 +541,13 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col width="16.85546875" customWidth="1" min="1" max="1"/>
-    <col width="5.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="16.81640625" customWidth="1" min="1" max="1"/>
+    <col width="6.453125" customWidth="1" min="2" max="2"/>
     <col width="3" bestFit="1" customWidth="1" min="3" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
   </cols>
@@ -723,7 +702,7 @@
       <c r="T4" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="U4" s="10" t="n">
+      <c r="U4" s="7" t="n">
         <v>25</v>
       </c>
     </row>
@@ -733,64 +712,64 @@
           <t>Poids</t>
         </is>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="8" t="n">
         <v>66</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="8" t="n">
         <v>77</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="8" t="n">
         <v>67</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="8" t="n">
         <v>83</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="8" t="n">
         <v>58</v>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="H5" s="8" t="n">
         <v>52</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="8" t="n">
         <v>69</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="J5" s="8" t="n">
         <v>97</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="K5" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="8" t="n">
         <v>90</v>
       </c>
-      <c r="M5" s="11" t="n">
+      <c r="M5" s="8" t="n">
         <v>54</v>
       </c>
-      <c r="N5" s="11" t="n">
+      <c r="N5" s="8" t="n">
         <v>71</v>
       </c>
-      <c r="O5" s="11" t="n">
+      <c r="O5" s="8" t="n">
         <v>74</v>
       </c>
-      <c r="P5" s="11" t="n">
+      <c r="P5" s="8" t="n">
         <v>78</v>
       </c>
-      <c r="Q5" s="11" t="n">
+      <c r="Q5" s="8" t="n">
         <v>69</v>
       </c>
-      <c r="R5" s="11" t="n">
+      <c r="R5" s="8" t="n">
         <v>89</v>
       </c>
-      <c r="S5" s="11" t="n">
+      <c r="S5" s="8" t="n">
         <v>79</v>
       </c>
-      <c r="T5" s="11" t="n">
+      <c r="T5" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="U5" s="12" t="n">
+      <c r="U5" s="9" t="n">
         <v>91</v>
       </c>
     </row>
@@ -805,163 +784,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="B1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col width="13.140625" customWidth="1" min="1" max="1"/>
-    <col width="4" customWidth="1" style="4" min="2" max="2"/>
-    <col width="3.140625" customWidth="1" style="4" min="3" max="21"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Profit :</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="inlineStr">
+    <row r="1">
+      <c r="B1" t="inlineStr">
         <is>
           <t>objValue</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Objet</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="n">
+    <row r="3">
+      <c r="B3" t="n">
         <v>1</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="M2" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="N2" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O2" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="P2" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="R2" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="S2" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="T2" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="U2" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Transporté</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" s="8" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
